--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/ABC/20/seed4/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/ABC/20/seed4/result_data_RandomForest.xlsx
@@ -488,7 +488,7 @@
         <v>-19.84</v>
       </c>
       <c r="B4" t="n">
-        <v>8.540000000000006</v>
+        <v>8.639400000000002</v>
       </c>
       <c r="C4" t="n">
         <v>-13.95</v>
@@ -555,13 +555,13 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-21.98719999999997</v>
+        <v>-22.10839999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>6.591900000000002</v>
+        <v>6.602500000000005</v>
       </c>
       <c r="C9" t="n">
-        <v>-12.00820000000001</v>
+        <v>-12.0559</v>
       </c>
       <c r="D9" t="n">
         <v>-7.01</v>
@@ -586,7 +586,7 @@
         <v>-21.2</v>
       </c>
       <c r="B11" t="n">
-        <v>5.060600000000001</v>
+        <v>4.791700000000002</v>
       </c>
       <c r="C11" t="n">
         <v>-10.8</v>
@@ -611,7 +611,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-22.204</v>
+        <v>-22.3101</v>
       </c>
       <c r="B13" t="n">
         <v>4.02</v>
@@ -653,10 +653,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-21.693</v>
+        <v>-21.69130000000001</v>
       </c>
       <c r="B16" t="n">
-        <v>4.483799999999998</v>
+        <v>4.808</v>
       </c>
       <c r="C16" t="n">
         <v>-13.59</v>
@@ -681,7 +681,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-22.21100000000001</v>
+        <v>-22.15310000000001</v>
       </c>
       <c r="B18" t="n">
         <v>4.35</v>
@@ -709,7 +709,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-21.41529999999998</v>
+        <v>-21.42639999999998</v>
       </c>
       <c r="B20" t="n">
         <v>10.19</v>
@@ -743,7 +743,7 @@
         <v>8.81</v>
       </c>
       <c r="C22" t="n">
-        <v>-12.0908</v>
+        <v>-12.2334</v>
       </c>
       <c r="D22" t="n">
         <v>-6.8</v>
@@ -754,7 +754,7 @@
         <v>-20.35</v>
       </c>
       <c r="B23" t="n">
-        <v>8.756399999999999</v>
+        <v>8.811199999999996</v>
       </c>
       <c r="C23" t="n">
         <v>-12.89</v>
@@ -768,7 +768,7 @@
         <v>-20.85</v>
       </c>
       <c r="B24" t="n">
-        <v>5.500199999999999</v>
+        <v>6.3044</v>
       </c>
       <c r="C24" t="n">
         <v>-10.44</v>
@@ -793,10 +793,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-21.19359999999998</v>
+        <v>-21.10959999999997</v>
       </c>
       <c r="B26" t="n">
-        <v>6.2276</v>
+        <v>5.530300000000002</v>
       </c>
       <c r="C26" t="n">
         <v>-10.59</v>
@@ -807,13 +807,13 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-21.85719999999999</v>
+        <v>-21.93669999999999</v>
       </c>
       <c r="B27" t="n">
         <v>5.54</v>
       </c>
       <c r="C27" t="n">
-        <v>-11.89079999999999</v>
+        <v>-12.66599999999999</v>
       </c>
       <c r="D27" t="n">
         <v>-8.550000000000001</v>
@@ -835,13 +835,13 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-21.93689999999998</v>
+        <v>-21.81769999999998</v>
       </c>
       <c r="B29" t="n">
         <v>7.52</v>
       </c>
       <c r="C29" t="n">
-        <v>-11.93840000000001</v>
+        <v>-11.88370000000001</v>
       </c>
       <c r="D29" t="n">
         <v>-7.09</v>
@@ -883,7 +883,7 @@
         <v>3.16</v>
       </c>
       <c r="C32" t="n">
-        <v>-12.53510000000001</v>
+        <v>-12.6454</v>
       </c>
       <c r="D32" t="n">
         <v>-8.69</v>
@@ -908,7 +908,7 @@
         <v>-20.6</v>
       </c>
       <c r="B34" t="n">
-        <v>9.607300000000006</v>
+        <v>9.880000000000004</v>
       </c>
       <c r="C34" t="n">
         <v>-11.49</v>
@@ -919,10 +919,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>-21.77969999999999</v>
+        <v>-21.86579999999999</v>
       </c>
       <c r="B35" t="n">
-        <v>4.7786</v>
+        <v>5.170800000000001</v>
       </c>
       <c r="C35" t="n">
         <v>-13.02</v>
@@ -933,7 +933,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-21.03009999999997</v>
+        <v>-20.93599999999998</v>
       </c>
       <c r="B36" t="n">
         <v>9.84</v>
@@ -953,7 +953,7 @@
         <v>9.41</v>
       </c>
       <c r="C37" t="n">
-        <v>-14.00949999999998</v>
+        <v>-14.09099999999999</v>
       </c>
       <c r="D37" t="n">
         <v>-7.88</v>
@@ -967,7 +967,7 @@
         <v>9.66</v>
       </c>
       <c r="C38" t="n">
-        <v>-11.6361</v>
+        <v>-11.9268</v>
       </c>
       <c r="D38" t="n">
         <v>-9.09</v>
@@ -981,7 +981,7 @@
         <v>9.35</v>
       </c>
       <c r="C39" t="n">
-        <v>-12.66210000000001</v>
+        <v>-12.70230000000001</v>
       </c>
       <c r="D39" t="n">
         <v>-8.93</v>
@@ -1009,7 +1009,7 @@
         <v>8.92</v>
       </c>
       <c r="C41" t="n">
-        <v>-12.90390000000002</v>
+        <v>-12.97550000000002</v>
       </c>
       <c r="D41" t="n">
         <v>-8.720000000000001</v>
@@ -1048,7 +1048,7 @@
         <v>-21.91</v>
       </c>
       <c r="B44" t="n">
-        <v>4.598300000000004</v>
+        <v>4.512800000000002</v>
       </c>
       <c r="C44" t="n">
         <v>-10.47</v>
@@ -1059,13 +1059,13 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>-21.52549999999998</v>
+        <v>-21.62599999999999</v>
       </c>
       <c r="B45" t="n">
         <v>5.73</v>
       </c>
       <c r="C45" t="n">
-        <v>-13.52579999999999</v>
+        <v>-13.37899999999999</v>
       </c>
       <c r="D45" t="n">
         <v>-7.87</v>
@@ -1104,10 +1104,10 @@
         <v>-21.86</v>
       </c>
       <c r="B48" t="n">
-        <v>6.854200000000003</v>
+        <v>7.002500000000001</v>
       </c>
       <c r="C48" t="n">
-        <v>-12.10820000000001</v>
+        <v>-12.24570000000001</v>
       </c>
       <c r="D48" t="n">
         <v>-6.88</v>
@@ -1118,7 +1118,7 @@
         <v>-22.14</v>
       </c>
       <c r="B49" t="n">
-        <v>6.2381</v>
+        <v>5.987099999999998</v>
       </c>
       <c r="C49" t="n">
         <v>-12.11</v>
@@ -1149,7 +1149,7 @@
         <v>4.98</v>
       </c>
       <c r="C51" t="n">
-        <v>-11.223</v>
+        <v>-11.12799999999999</v>
       </c>
       <c r="D51" t="n">
         <v>-7.18</v>
@@ -1160,7 +1160,7 @@
         <v>-21.69</v>
       </c>
       <c r="B52" t="n">
-        <v>5.4211</v>
+        <v>5.5893</v>
       </c>
       <c r="C52" t="n">
         <v>-14.35</v>
@@ -1199,7 +1199,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-22.07199999999999</v>
+        <v>-22.2021</v>
       </c>
       <c r="B55" t="n">
         <v>5.38</v>
@@ -1219,7 +1219,7 @@
         <v>4.42</v>
       </c>
       <c r="C56" t="n">
-        <v>-12.58369999999999</v>
+        <v>-12.74629999999999</v>
       </c>
       <c r="D56" t="n">
         <v>-8.92</v>
@@ -1227,13 +1227,13 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-21.97529999999998</v>
+        <v>-21.97719999999999</v>
       </c>
       <c r="B57" t="n">
         <v>4.82</v>
       </c>
       <c r="C57" t="n">
-        <v>-12.57249999999999</v>
+        <v>-12.56409999999998</v>
       </c>
       <c r="D57" t="n">
         <v>-8.31</v>
@@ -1289,7 +1289,7 @@
         <v>8.33</v>
       </c>
       <c r="C61" t="n">
-        <v>-14.17549999999998</v>
+        <v>-14.18599999999999</v>
       </c>
       <c r="D61" t="n">
         <v>-7.97</v>
@@ -1331,7 +1331,7 @@
         <v>4.89</v>
       </c>
       <c r="C64" t="n">
-        <v>-10.16429999999999</v>
+        <v>-10.10509999999999</v>
       </c>
       <c r="D64" t="n">
         <v>-6.84</v>
@@ -1356,7 +1356,7 @@
         <v>-21.61</v>
       </c>
       <c r="B66" t="n">
-        <v>5.114000000000002</v>
+        <v>4.966499999999995</v>
       </c>
       <c r="C66" t="n">
         <v>-10.51</v>
@@ -1370,7 +1370,7 @@
         <v>-21.67</v>
       </c>
       <c r="B67" t="n">
-        <v>5.4354</v>
+        <v>5.142300000000001</v>
       </c>
       <c r="C67" t="n">
         <v>-10.67</v>
@@ -1395,7 +1395,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.5173</v>
+        <v>-21.5747</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1454,7 +1454,7 @@
         <v>-20.59</v>
       </c>
       <c r="B73" t="n">
-        <v>9.063000000000001</v>
+        <v>9.133800000000003</v>
       </c>
       <c r="C73" t="n">
         <v>-15.02</v>
@@ -1485,7 +1485,7 @@
         <v>8.09</v>
       </c>
       <c r="C75" t="n">
-        <v>-12.5655</v>
+        <v>-12.3128</v>
       </c>
       <c r="D75" t="n">
         <v>-7.62</v>
@@ -1493,7 +1493,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>-19.6895</v>
+        <v>-19.96039999999999</v>
       </c>
       <c r="B76" t="n">
         <v>9.23</v>
@@ -1521,10 +1521,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-21.54749999999998</v>
+        <v>-21.63799999999999</v>
       </c>
       <c r="B78" t="n">
-        <v>5.467700000000002</v>
+        <v>5.858800000000002</v>
       </c>
       <c r="C78" t="n">
         <v>-13.33</v>
@@ -1552,7 +1552,7 @@
         <v>-20.43</v>
       </c>
       <c r="B80" t="n">
-        <v>9.155799999999996</v>
+        <v>9.314699999999998</v>
       </c>
       <c r="C80" t="n">
         <v>-12.35</v>
@@ -1577,13 +1577,13 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-22.02110000000001</v>
+        <v>-21.9122</v>
       </c>
       <c r="B82" t="n">
         <v>5.26</v>
       </c>
       <c r="C82" t="n">
-        <v>-11.4821</v>
+        <v>-11.4159</v>
       </c>
       <c r="D82" t="n">
         <v>-7.37</v>
@@ -1591,7 +1591,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-21.45209999999998</v>
+        <v>-21.60349999999999</v>
       </c>
       <c r="B83" t="n">
         <v>5.84</v>
@@ -1695,7 +1695,7 @@
         <v>4.69</v>
       </c>
       <c r="C90" t="n">
-        <v>-10.016</v>
+        <v>-10.0444</v>
       </c>
       <c r="D90" t="n">
         <v>-7</v>
@@ -1706,7 +1706,7 @@
         <v>-21.82</v>
       </c>
       <c r="B91" t="n">
-        <v>5.148799999999997</v>
+        <v>5.133799999999999</v>
       </c>
       <c r="C91" t="n">
         <v>-12.06</v>
@@ -1731,13 +1731,13 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-21.43910000000002</v>
+        <v>-21.43600000000001</v>
       </c>
       <c r="B93" t="n">
         <v>4.28</v>
       </c>
       <c r="C93" t="n">
-        <v>-10.4602</v>
+        <v>-10.44889999999999</v>
       </c>
       <c r="D93" t="n">
         <v>-5.79</v>
@@ -1787,10 +1787,10 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>-21.60569999999997</v>
+        <v>-21.5742</v>
       </c>
       <c r="B97" t="n">
-        <v>5.278599999999999</v>
+        <v>5.065099999999995</v>
       </c>
       <c r="C97" t="n">
         <v>-10.47</v>
@@ -1818,7 +1818,7 @@
         <v>-21.32</v>
       </c>
       <c r="B99" t="n">
-        <v>5.525199999999996</v>
+        <v>5.316199999999998</v>
       </c>
       <c r="C99" t="n">
         <v>-13.93</v>
@@ -1863,7 +1863,7 @@
         <v>9.130000000000001</v>
       </c>
       <c r="C102" t="n">
-        <v>-11.45</v>
+        <v>-11.6694</v>
       </c>
       <c r="D102" t="n">
         <v>-9.24</v>
@@ -1888,7 +1888,7 @@
         <v>-19.85</v>
       </c>
       <c r="B104" t="n">
-        <v>9.984500000000004</v>
+        <v>10.23450000000001</v>
       </c>
       <c r="C104" t="n">
         <v>-11.07</v>
@@ -1905,7 +1905,7 @@
         <v>9.01</v>
       </c>
       <c r="C105" t="n">
-        <v>-12.35890000000001</v>
+        <v>-12.65190000000001</v>
       </c>
       <c r="D105" t="n">
         <v>-8.630000000000001</v>
